--- a/sheet_engine/static/template_sheets/staff.xlsx
+++ b/sheet_engine/static/template_sheets/staff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeLab\Projects\curie\sheet_engine\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrd/Documents/repositories/curie/sheet_engine/static/template_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35007003-91E2-4A7D-A6A4-D4530544242E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEE964C-F3B5-AF41-958F-F935A38A179A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29640" yWindow="2085" windowWidth="15375" windowHeight="8085" xr2:uid="{D75BC6B3-EE77-4A04-A34E-12070346C77A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19920" xr2:uid="{D75BC6B3-EE77-4A04-A34E-12070346C77A}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,13 +66,13 @@
     <t>GENDER</t>
   </si>
   <si>
-    <t>KETA SENIOR HIGH TECHNICAL SCHOOL</t>
-  </si>
-  <si>
     <t>STAFF DATA SHEET</t>
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>ANLO SENIOR HIGH TECHNICAL SCHOOL</t>
   </si>
 </sst>
 </file>
@@ -157,22 +155,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113514</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>49846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EFD1E0-53C2-48C0-97D9-0AAEEFCA9BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F3F849D-DC37-4846-B9FA-7F2D1D72D35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -188,15 +186,12 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4476750" y="47625"/>
-          <a:ext cx="1332714" cy="1438275"/>
+          <a:off x="5245100" y="63500"/>
+          <a:ext cx="1282700" cy="1319846"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -504,19 +499,19 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A1:O10"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -533,7 +528,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -550,7 +545,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -567,7 +562,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -584,7 +579,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -601,7 +596,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -618,7 +613,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -635,7 +630,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -652,9 +647,9 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -671,9 +666,9 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="24" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -690,9 +685,9 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -710,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -730,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
